--- a/src/main/resources/157-black-shop/black-shop-auth_structure.xlsx
+++ b/src/main/resources/157-black-shop/black-shop-auth_structure.xlsx
@@ -127,7 +127,7 @@
     <t>configure(org.springframework.security.oauth2.config.annotation.web.configurers.AuthorizationServerEndpointsConfigurer)</t>
   </si>
   <si>
-    <t>lambda$tokenEnhancer$0(org.springframework.security.oauth2.common.OAuth2AccessToken)</t>
+    <t>lambda$tokenEnhancer$0(org.springframework.security.oauth2.common.OAuth2AccessToken,org.springframework.security.oauth2.provider.OAuth2Authentication)</t>
   </si>
   <si>
     <t>private</t>
